--- a/harana/datasets/BPSFH/9/chords.xlsx
+++ b/harana/datasets/BPSFH/9/chords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoyu/Desktop/video_music/feature/dataset/BPSFH/9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiaoyu/Desktop/video_music/harana/harana/datasets/BPSFH/9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ED5AE-AD3F-1F40-9335-5E77E60A82F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C3B42-CB3B-F547-8479-836F8E1424A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="152">
   <si>
     <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,14 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+4/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,12 +595,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gr+6/IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It+6/IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>V43</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>vii-6</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
 </sst>
 </file>
@@ -980,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="G339" sqref="G339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6795,7 +6809,7 @@
         <v>652</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6815,99 +6829,99 @@
         <v>652</v>
       </c>
       <c r="B254" s="1">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="D254" s="1">
         <v>5</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="F254" s="1">
         <v>2</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B255" s="1">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="D255" s="1">
+        <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B256" s="1">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F256" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B257" s="1">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D257" s="1">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F257" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B258" s="1">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>32</v>
@@ -6927,33 +6941,33 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B259" s="1">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D259" s="1">
         <v>7</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F259" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B260" s="1">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>32</v>
@@ -6973,33 +6987,33 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B261" s="1">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D261" s="1">
         <v>7</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F261" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B262" s="1">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>32</v>
@@ -7019,33 +7033,33 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B263" s="1">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D263" s="1">
         <v>7</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F263" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B264" s="1">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>32</v>
@@ -7065,33 +7079,33 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B265" s="1">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D265" s="1">
         <v>7</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F265" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B266" s="1">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>32</v>
@@ -7111,36 +7125,36 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B267" s="1">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D267" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F267" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B268" s="1">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
@@ -7157,292 +7171,292 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B269" s="1">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
+      </c>
+      <c r="D269" s="1">
+        <v>5</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="F269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B270" s="1">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D270" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F270" s="1">
         <v>0</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B271" s="1">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D271" s="1">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F271" s="1">
         <v>1</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="B272" s="1">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D272" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B273" s="1">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D273" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B274" s="1">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
+      </c>
+      <c r="D274" s="1">
+        <v>5</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B275" s="1">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F275" s="1">
         <v>0</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B276" s="1">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F276" s="1">
         <v>0</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B277" s="1">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D277" s="1">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F277" s="1">
         <v>0</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B278" s="1">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D278" s="1">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F278" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="B279" s="1">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D279" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F279" s="1">
         <v>0</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B280" s="1">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D280" s="1">
         <v>5</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B281" s="1">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D281" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>1</v>
@@ -7451,64 +7465,64 @@
         <v>0</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B282" s="1">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D282" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F282" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B283" s="1">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D283" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F283" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B284" s="1">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
@@ -7525,13 +7539,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B285" s="1">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D285" s="1">
         <v>5</v>
@@ -7548,13 +7562,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B286" s="1">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
@@ -7571,151 +7585,151 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B287" s="1">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
+      </c>
+      <c r="D287" s="1">
+        <v>5</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="F287" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B288" s="1">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D288" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F288" s="1">
         <v>1</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B289" s="1">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D289" s="1">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F289" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B290" s="1">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D290" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F290" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B291" s="1">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D291" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F291" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B292" s="1">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D292" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F292" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B293" s="1">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D293" s="1">
         <v>1</v>
@@ -7732,13 +7746,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B294" s="1">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D294" s="1">
         <v>5</v>
@@ -7755,13 +7769,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B295" s="1">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D295" s="1">
         <v>1</v>
@@ -7778,404 +7792,404 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B296" s="1">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
+      </c>
+      <c r="D296" s="1">
+        <v>5</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="F296" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B297" s="1">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D297" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F297" s="1">
         <v>1</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B298" s="1">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D298" s="1">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F298" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B299" s="1">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D299" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F299" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B300" s="1">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D300" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F300" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B301" s="1">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D301" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F301" s="1">
         <v>0</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B302" s="1">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D302" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F302" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B303" s="1">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D303" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F303" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B304" s="1">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D304" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F304" s="1">
         <v>0</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B305" s="1">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D305" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F305" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B306" s="1">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D306" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F306" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B307" s="1">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D307" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F307" s="1">
         <v>0</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B308" s="1">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D308" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F308" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B309" s="1">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D309" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F309" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B310" s="1">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D310" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F310" s="1">
         <v>0</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B311" s="1">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D311" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F311" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B312" s="1">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D312" s="1">
         <v>5</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F312" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B313" s="1">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -8184,90 +8198,90 @@
         <v>1</v>
       </c>
       <c r="F313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B314" s="1">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D314" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F314" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B315" s="1">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D315" s="1">
         <v>1</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F315" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B316" s="1">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D316" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F316" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B317" s="1">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -8276,136 +8290,136 @@
         <v>68</v>
       </c>
       <c r="F317" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B318" s="1">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D318" s="1">
         <v>5</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F318" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B319" s="1">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F319" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B320" s="1">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D320" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F320" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B321" s="1">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D321" s="1">
         <v>1</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F321" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B322" s="1">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D322" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F322" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B323" s="1">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D323" s="1">
         <v>1</v>
@@ -8414,159 +8428,159 @@
         <v>68</v>
       </c>
       <c r="F323" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B324" s="1">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D324" s="1">
         <v>5</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F324" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B325" s="1">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D325" s="1">
         <v>1</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F325" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B326" s="1">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D326" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F326" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B327" s="1">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D327" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="F327" s="1">
         <v>0</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B328" s="1">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D328" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F328" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B329" s="1">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D329" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="F329" s="1">
         <v>0</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B330" s="1">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D330" s="1">
         <v>1</v>
@@ -8575,18 +8589,18 @@
         <v>1</v>
       </c>
       <c r="F330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B331" s="1">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>17</v>
@@ -8598,41 +8612,41 @@
         <v>1</v>
       </c>
       <c r="F331" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B332" s="1">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D332" s="1">
         <v>1</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="F332" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B333" s="1">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>17</v>
@@ -8644,113 +8658,113 @@
         <v>1</v>
       </c>
       <c r="F333" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B334" s="1">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D334" s="1">
         <v>1</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="F334" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B335" s="1">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="D335" s="1">
+        <v>4</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="F335" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B336" s="1">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C336" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D336" s="1">
+        <v>1</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F336" s="1">
+        <v>1</v>
+      </c>
+      <c r="G336" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D336" s="1">
-        <v>1</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F336" s="1">
-        <v>0</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B337" s="1">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" s="1">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F337" s="1">
         <v>1</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B338" s="1">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D338" s="1">
         <v>1</v>
@@ -8767,36 +8781,36 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B339" s="1">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="D339" s="1">
+        <v>7</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F339" s="1">
         <v>1</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B340" s="1">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D340" s="1">
         <v>1</v>
@@ -8813,36 +8827,36 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B341" s="1">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D341" s="1">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F341" s="1">
         <v>1</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B342" s="1">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D342" s="1">
         <v>1</v>
@@ -8859,36 +8873,36 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B343" s="1">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="D343" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F343" s="1">
         <v>1</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B344" s="1">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D344" s="1">
         <v>1</v>
@@ -8905,13 +8919,13 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B345" s="1">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D345" s="1">
         <v>5</v>
@@ -8920,21 +8934,21 @@
         <v>12</v>
       </c>
       <c r="F345" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B346" s="1">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D346" s="1">
         <v>1</v>
@@ -8951,13 +8965,13 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B347" s="1">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D347" s="1">
         <v>5</v>
@@ -8966,21 +8980,21 @@
         <v>12</v>
       </c>
       <c r="F347" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B348" s="1">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D348" s="1">
         <v>1</v>
@@ -8997,13 +9011,13 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B349" s="1">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D349" s="1">
         <v>5</v>
@@ -9012,21 +9026,21 @@
         <v>12</v>
       </c>
       <c r="F349" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B350" s="1">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D350" s="1">
         <v>1</v>
@@ -9043,13 +9057,13 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B351" s="1">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D351" s="1">
         <v>5</v>
@@ -9061,18 +9075,18 @@
         <v>3</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B352" s="1">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -9089,13 +9103,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B353" s="1">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D353" s="1">
         <v>5</v>
@@ -9107,29 +9121,75 @@
         <v>3</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
+        <v>876</v>
+      </c>
+      <c r="B354" s="1">
+        <v>878</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D354" s="1">
+        <v>1</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F354" s="1">
+        <v>0</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>878</v>
+      </c>
+      <c r="B355" s="1">
         <v>880</v>
       </c>
-      <c r="B354" s="1">
+      <c r="C355" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D355" s="1">
+        <v>5</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F355" s="1">
+        <v>3</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>880</v>
+      </c>
+      <c r="B356" s="1">
         <v>888</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D354" s="1">
-        <v>1</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F354" s="1">
-        <v>0</v>
-      </c>
-      <c r="G354" s="1" t="s">
+      <c r="C356" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D356" s="1">
+        <v>1</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F356" s="1">
+        <v>0</v>
+      </c>
+      <c r="G356" s="1" t="s">
         <v>2</v>
       </c>
     </row>
